--- a/TCC/experimentos3/resultados/experimentos.xlsx
+++ b/TCC/experimentos3/resultados/experimentos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="comparacaoAlgoritmo" sheetId="1" r:id="rId1"/>
@@ -659,6 +659,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="10" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,15 +701,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,22 +1070,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="J1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="J1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1129,19 +1129,19 @@
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="40">
         <v>0.90701799999999999</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="40">
         <v>0.90292399999999995</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="40">
         <v>0.89649100000000004</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="40">
         <v>0.76573400000000003</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="40">
         <v>0.90058499999999997</v>
       </c>
       <c r="J3" s="30" t="s">
@@ -1176,19 +1176,19 @@
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="40">
         <v>0.76573400000000003</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="40">
         <v>0.76311200000000001</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="40">
         <v>0.74912599999999996</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="40">
         <v>0.91052599999999995</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="40">
         <v>0.75174799999999997</v>
       </c>
       <c r="J4" s="30" t="s">
@@ -1220,22 +1220,22 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="46">
         <v>0.91052599999999995</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="40">
         <v>0.84</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="47">
         <v>0.91052599999999995</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="47">
         <v>0.91052599999999995</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="40">
         <v>0.85578900000000002</v>
       </c>
       <c r="J5" s="30" t="s">
@@ -1270,19 +1270,19 @@
       <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="40">
         <v>0.77144100000000004</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="40">
         <v>0.76702000000000004</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="40">
         <v>0.77320999999999995</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="40">
         <v>0.76480999999999999</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="40">
         <v>0.76613600000000004</v>
       </c>
       <c r="J6" s="30" t="s">
@@ -1317,19 +1317,19 @@
       <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="40">
         <v>0.92298000000000002</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="40">
         <v>0.92298000000000002</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="40">
         <v>0.92361099999999996</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="40">
         <v>0.92298000000000002</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="40">
         <v>0.912879</v>
       </c>
       <c r="J7" s="30" t="s">
@@ -1364,19 +1364,19 @@
       <c r="A8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="40">
         <v>0.89415599999999995</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="40">
         <v>0.89480499999999996</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="40">
         <v>0.892208</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="40">
         <v>0.89415599999999995</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="40">
         <v>0.89318200000000003</v>
       </c>
       <c r="J8" s="30" t="s">
@@ -1411,19 +1411,19 @@
       <c r="A9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="40">
         <v>0.87404899999999996</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="40">
         <v>0.87404899999999996</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="40">
         <v>0.87489399999999995</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="40">
         <v>0.87404899999999996</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="40">
         <v>0.84869000000000006</v>
       </c>
       <c r="J9" s="30" t="s">
@@ -1458,19 +1458,19 @@
       <c r="A10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="40">
         <v>0.858599</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="40">
         <v>0.85838199999999998</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="40">
         <v>0.860985</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="40">
         <v>0.85773200000000005</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="40">
         <v>0.85773200000000005</v>
       </c>
       <c r="J10" s="30" t="s">
@@ -1505,19 +1505,19 @@
       <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="40">
         <v>0.60815600000000003</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="40">
         <v>0.64716300000000004</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="40">
         <v>0.62234</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="40">
         <v>0.56116999999999995</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="40">
         <v>0.62943300000000002</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -1552,19 +1552,19 @@
       <c r="A12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="40">
         <v>0.844086</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="40">
         <v>0.84229399999999999</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="40">
         <v>0.83602200000000004</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="40">
         <v>0.844086</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="40">
         <v>0.83960599999999996</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -1599,19 +1599,19 @@
       <c r="A13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="40">
         <v>0.69261399999999995</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="40">
         <v>0.67840900000000004</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="40">
         <v>0.71761399999999997</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="40">
         <v>0.65170499999999998</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="40">
         <v>0.68068200000000001</v>
       </c>
       <c r="J13" s="30" t="s">
@@ -1646,19 +1646,19 @@
       <c r="A14" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="40">
         <v>0.70819799999999999</v>
       </c>
-      <c r="C14" s="51">
+      <c r="C14" s="40">
         <v>0.69967500000000005</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="40">
         <v>0.73985400000000001</v>
       </c>
-      <c r="E14" s="51">
+      <c r="E14" s="40">
         <v>0.712256</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="40">
         <v>0.72362000000000004</v>
       </c>
       <c r="J14" s="30" t="s">
@@ -1693,19 +1693,19 @@
       <c r="A15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="40">
         <v>0.87814300000000001</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="40">
         <v>0.88588</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="40">
         <v>0.88588</v>
       </c>
-      <c r="E15" s="51">
+      <c r="E15" s="40">
         <v>0.88491299999999995</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="40">
         <v>0.89748499999999998</v>
       </c>
       <c r="J15" s="30" t="s">
@@ -1740,19 +1740,19 @@
       <c r="A16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="40">
         <v>0.75287400000000004</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="40">
         <v>0.75359200000000004</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="40">
         <v>0.76293100000000003</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="40">
         <v>0.75790199999999996</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="40">
         <v>0.76795999999999998</v>
       </c>
       <c r="J16" s="30" t="s">
@@ -1784,22 +1784,22 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="46">
         <v>0.94157100000000005</v>
       </c>
-      <c r="C17" s="58">
+      <c r="C17" s="47">
         <v>0.94157100000000005</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="40">
         <v>0.93965500000000002</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="47">
         <v>0.94157100000000005</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="40">
         <v>0.93534499999999998</v>
       </c>
       <c r="J17" s="30" t="s">
@@ -1831,22 +1831,22 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="46">
         <v>0.94321200000000005</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="40">
         <v>0.93945599999999996</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="40">
         <v>0.94082200000000005</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="47">
         <v>0.94321200000000005</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="40">
         <v>0.94207399999999997</v>
       </c>
       <c r="J18" s="30" t="s">
@@ -1881,19 +1881,19 @@
       <c r="A19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="40">
         <v>0.86593399999999998</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="40">
         <v>0.86043999999999998</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="40">
         <v>0.86703300000000005</v>
       </c>
-      <c r="E19" s="51">
-        <v>0.85494499999999995</v>
-      </c>
-      <c r="F19" s="51">
+      <c r="E19" s="40">
+        <v>0.86593399999999998</v>
+      </c>
+      <c r="F19" s="40">
         <v>0.85384599999999999</v>
       </c>
       <c r="J19" s="30" t="s">
@@ -1901,11 +1901,11 @@
       </c>
       <c r="K19" s="30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M19" s="30">
         <f t="shared" si="2"/>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="N19" s="30">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O19" s="30">
         <f t="shared" si="4"/>
@@ -1928,19 +1928,19 @@
       <c r="A20" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="40">
         <v>0.94505499999999998</v>
       </c>
-      <c r="C20" s="51">
+      <c r="C20" s="40">
         <v>0.94505499999999998</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="40">
         <v>0.94285699999999995</v>
       </c>
-      <c r="E20" s="51">
-        <v>0.94285699999999995</v>
-      </c>
-      <c r="F20" s="51">
+      <c r="E20" s="40">
+        <v>0.94505499999999998</v>
+      </c>
+      <c r="F20" s="40">
         <v>0.94725300000000001</v>
       </c>
       <c r="J20" s="30" t="s">
@@ -1948,19 +1948,19 @@
       </c>
       <c r="K20" s="30">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="30">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M20" s="30">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N20" s="30">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="O20" s="30">
         <f t="shared" si="4"/>
@@ -1975,19 +1975,19 @@
       <c r="A21" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="40">
         <v>0.81034499999999998</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="40">
         <v>0.80998599999999998</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="40">
         <v>0.80747100000000005</v>
       </c>
-      <c r="E21" s="51">
-        <v>0.80244300000000002</v>
-      </c>
-      <c r="F21" s="51">
+      <c r="E21" s="40">
+        <v>0.81070399999999998</v>
+      </c>
+      <c r="F21" s="40">
         <v>0.80818999999999996</v>
       </c>
       <c r="J21" s="30" t="s">
@@ -1995,23 +1995,23 @@
       </c>
       <c r="K21" s="30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" s="30">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21" s="30">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="5"/>
@@ -2022,19 +2022,19 @@
       <c r="A22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="40">
         <v>0.75426099999999996</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="40">
         <v>0.77130699999999996</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="40">
         <v>0.75852299999999995</v>
       </c>
-      <c r="E22" s="51">
-        <v>0.76349400000000001</v>
-      </c>
-      <c r="F22" s="51">
+      <c r="E22" s="40">
+        <v>0.76065300000000002</v>
+      </c>
+      <c r="F22" s="40">
         <v>0.75710200000000005</v>
       </c>
       <c r="J22" s="30" t="s">
@@ -2077,13 +2077,13 @@
         <f>AVERAGE(C3:C22)</f>
         <v>0.82990500000000011</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="44">
         <f>AVERAGE(D3:D22)</f>
         <v>0.83510264999999995</v>
       </c>
       <c r="E23" s="32">
         <f>AVERAGE(E3:E22)</f>
-        <v>0.82805335000000002</v>
+        <v>0.82898369999999988</v>
       </c>
       <c r="F23" s="31">
         <f>AVERAGE(F3:F22)</f>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="K23" s="5">
         <f>COUNTIF(K3:K22,"&lt;2")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" s="5">
         <f>COUNTIF(L3:L22,"&lt;2")</f>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="N23" s="5">
         <f>COUNTIF(N3:N22,"&lt;2")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O23" s="5">
         <f>COUNTIF(O3:O22,"&lt;2")</f>
@@ -2117,48 +2117,48 @@
       <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="42">
         <f>K24</f>
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="C24" s="38">
         <f>L24</f>
-        <v>2.9</v>
-      </c>
-      <c r="D24" s="52">
+        <v>3.0249999999999999</v>
+      </c>
+      <c r="D24" s="41">
         <f>M24</f>
-        <v>2.75</v>
+        <v>2.8250000000000002</v>
       </c>
       <c r="E24" s="38">
         <f>N24</f>
-        <v>3.3250000000000002</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="F24" s="38">
         <f>O24</f>
-        <v>3.375</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="K24" s="7">
         <f>AVERAGE(K3:K22)</f>
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="L24" s="7">
         <f>AVERAGE(L3:L22)</f>
-        <v>2.9</v>
+        <v>3.0249999999999999</v>
       </c>
       <c r="M24" s="7">
         <f>AVERAGE(M3:M22)</f>
-        <v>2.75</v>
+        <v>2.8250000000000002</v>
       </c>
       <c r="N24" s="7">
         <f>AVERAGE(N3:N22)</f>
-        <v>3.3250000000000002</v>
+        <v>2.9750000000000001</v>
       </c>
       <c r="O24" s="7">
         <f>AVERAGE(O3:O22)</f>
-        <v>3.375</v>
+        <v>3.4249999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2167,19 +2167,19 @@
       </c>
       <c r="B25" s="33">
         <f>K23</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="34">
         <f>L23</f>
         <v>3</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="43">
         <f>M23</f>
         <v>7</v>
       </c>
       <c r="E25" s="33">
         <f>N23</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f>O23</f>
@@ -2190,48 +2190,48 @@
       <c r="A26" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="48">
         <f>_xlfn.RANK.AVG(B23,B23:F23)</f>
         <v>2</v>
       </c>
-      <c r="C26" s="59">
+      <c r="C26" s="48">
         <f>_xlfn.RANK.AVG(C23,B23:F23)</f>
         <v>3</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="48">
         <f>_xlfn.RANK.AVG(D23,B23:F23)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="48">
         <f>_xlfn.RANK.AVG(E23,B23:F23)</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="48">
+        <f>_xlfn.RANK.AVG(F23,B23:F23)</f>
         <v>5</v>
-      </c>
-      <c r="F26" s="59">
-        <f>_xlfn.RANK.AVG(F23,B23:F23)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="48">
         <f>_xlfn.RANK.AVG(B24,B24:F24,1)</f>
         <v>1</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="48">
         <f>_xlfn.RANK.AVG(C24,B24:F24,1)</f>
-        <v>3</v>
-      </c>
-      <c r="D27" s="59">
+        <v>4</v>
+      </c>
+      <c r="D27" s="48">
         <f>_xlfn.RANK.AVG(D24,B24:F24,1)</f>
         <v>2</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="48">
         <f>_xlfn.RANK.AVG(E24,B24:F24,1)</f>
-        <v>4</v>
-      </c>
-      <c r="F27" s="59">
+        <v>3</v>
+      </c>
+      <c r="F27" s="48">
         <f>_xlfn.RANK.AVG(F24,B24:F24,1)</f>
         <v>5</v>
       </c>
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,18 +2269,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="H1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="H1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2313,31 +2313,29 @@
         <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>0.93039000000000005</v>
+        <v>0.89649100000000004</v>
       </c>
       <c r="C3" s="3">
-        <v>0.92869299999999999</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0.92954199999999998</v>
-      </c>
+        <v>0.90058499999999997</v>
+      </c>
+      <c r="D3" s="29"/>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="2">
         <f>_xlfn.RANK.AVG(B3,B3:D3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J22" si="0">_xlfn.RANK.AVG(C3,B3:D3)</f>
-        <v>3</v>
-      </c>
-      <c r="K3" s="30">
-        <f t="shared" ref="K3:K22" si="1">_xlfn.RANK.AVG(D3,B3:D3)</f>
-        <v>2</v>
+        <f>_xlfn.RANK.AVG(C3,B3:D3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="30" t="e">
+        <f t="shared" ref="K3:K22" si="0">_xlfn.RANK.AVG(D3,B3:D3)</f>
+        <v>#N/A</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" ref="L3:L22" si="2">COUNTIF(I3:K3,1)</f>
+        <f>COUNTIF(I3:K3,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2346,31 +2344,29 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>0.76670899999999997</v>
+        <v>0.74912599999999996</v>
       </c>
       <c r="C4" s="3">
-        <v>0.73013899999999998</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0.75788100000000003</v>
-      </c>
+        <v>0.73164300000000004</v>
+      </c>
+      <c r="D4" s="29"/>
       <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I22" si="3">_xlfn.RANK.AVG(B4,B4:D4)</f>
+        <f>_xlfn.RANK.AVG(B4,B4:D4)</f>
         <v>1</v>
       </c>
       <c r="J4" s="2">
+        <f>_xlfn.RANK.AVG(C4,B4:D4)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K4" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I4:K4,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2379,31 +2375,29 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>0.90461499999999995</v>
+        <v>0.91052599999999995</v>
       </c>
       <c r="C5" s="3">
-        <v>0.90307700000000002</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0.90769200000000005</v>
-      </c>
+        <v>0.89894700000000005</v>
+      </c>
+      <c r="D5" s="29"/>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B5,B5:D5)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <f>_xlfn.RANK.AVG(C5,B5:D5)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I5:K5,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2412,31 +2406,29 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>0.74487199999999998</v>
+        <v>0.77320999999999995</v>
       </c>
       <c r="C6" s="3">
-        <v>0.74230799999999997</v>
-      </c>
-      <c r="D6" s="29">
-        <v>0.74230799999999997</v>
-      </c>
+        <v>0.780725</v>
+      </c>
+      <c r="D6" s="29"/>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(B6,B6:D6)</f>
+        <v>2</v>
       </c>
       <c r="J6" s="2">
+        <f>_xlfn.RANK.AVG(C6,B6:D6)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="K6" s="30">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>#N/A</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I6:K6,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2445,32 +2437,30 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>0.91985399999999995</v>
+        <v>0.92361099999999996</v>
       </c>
       <c r="C7" s="3">
-        <v>0.91530100000000003</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0.91894399999999998</v>
-      </c>
+        <v>0.92108599999999996</v>
+      </c>
+      <c r="D7" s="29"/>
       <c r="G7" s="13"/>
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B7,B7:D7)</f>
         <v>1</v>
       </c>
       <c r="J7" s="2">
+        <f>_xlfn.RANK.AVG(C7,B7:D7)</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K7" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I7:K7,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2479,31 +2469,29 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>0.91756400000000005</v>
+        <v>0.892208</v>
       </c>
       <c r="C8" s="3">
-        <v>0.91381699999999999</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0.91803299999999999</v>
-      </c>
+        <v>0.89188299999999998</v>
+      </c>
+      <c r="D8" s="29"/>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B8,B8:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <f>_xlfn.RANK.AVG(C8,B8:D8)</f>
         <v>2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K8" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I8:K8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2512,31 +2500,29 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>0.90198500000000004</v>
+        <v>0.87489399999999995</v>
       </c>
       <c r="C9" s="3">
-        <v>0.90074399999999999</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0.90074399999999999</v>
-      </c>
+        <v>0.85883299999999996</v>
+      </c>
+      <c r="D9" s="29"/>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B9,B9:D9)</f>
         <v>1</v>
       </c>
       <c r="J9" s="2">
+        <f>_xlfn.RANK.AVG(C9,B9:D9)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="K9" s="30">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>#N/A</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I9:K9,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2545,31 +2531,29 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>0.84622600000000003</v>
+        <v>0.860985</v>
       </c>
       <c r="C10" s="3">
-        <v>0.84465400000000002</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0.84528300000000001</v>
-      </c>
+        <v>0.86076799999999998</v>
+      </c>
+      <c r="D10" s="29"/>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B10,B10:D10)</f>
         <v>1</v>
       </c>
       <c r="J10" s="2">
+        <f>_xlfn.RANK.AVG(C10,B10:D10)</f>
+        <v>2</v>
+      </c>
+      <c r="K10" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K10" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I10:K10,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2578,32 +2562,30 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>0.58205099999999999</v>
+        <v>0.62234</v>
       </c>
       <c r="C11" s="3">
-        <v>0.58846200000000004</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0.58846200000000004</v>
-      </c>
+        <v>0.60372300000000001</v>
+      </c>
+      <c r="D11" s="29"/>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>_xlfn.RANK.AVG(B11,B11:D11)</f>
+        <v>1</v>
       </c>
       <c r="J11" s="2">
+        <f>_xlfn.RANK.AVG(C11,B11:D11)</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="K11" s="30">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>#N/A</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNTIF(I11:K11,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2611,31 +2593,29 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>0.84375</v>
+        <v>0.83602200000000004</v>
       </c>
       <c r="C12" s="3">
-        <v>0.83593799999999996</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0.84505200000000003</v>
-      </c>
+        <v>0.84856600000000004</v>
+      </c>
+      <c r="D12" s="29"/>
       <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B12,B12:D12)</f>
         <v>2</v>
       </c>
       <c r="J12" s="2">
+        <f>_xlfn.RANK.AVG(C12,B12:D12)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K12" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I12:K12,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2644,31 +2624,29 @@
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>0.68666700000000003</v>
+        <v>0.71761399999999997</v>
       </c>
       <c r="C13" s="3">
-        <v>0.6925</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0.74062499999999998</v>
-      </c>
+        <v>0.70568200000000003</v>
+      </c>
+      <c r="D13" s="29"/>
       <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>_xlfn.RANK.AVG(B13,B13:D13)</f>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
+        <f>_xlfn.RANK.AVG(C13,B13:D13)</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K13" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I13:K13,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2677,31 +2655,29 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>0.77459</v>
+        <v>0.73985400000000001</v>
       </c>
       <c r="C14" s="3">
-        <v>0.78512899999999997</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0.70750000000000002</v>
-      </c>
+        <v>0.73579499999999998</v>
+      </c>
+      <c r="D14" s="29"/>
       <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B14,B14:D14)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f>_xlfn.RANK.AVG(C14,B14:D14)</f>
         <v>2</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="30">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I14:K14,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2710,31 +2686,29 @@
         <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>0.90769200000000005</v>
+        <v>0.88588</v>
       </c>
       <c r="C15" s="3">
-        <v>0.89510500000000004</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0.90209799999999996</v>
-      </c>
+        <v>0.87524199999999996</v>
+      </c>
+      <c r="D15" s="29"/>
       <c r="H15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B15,B15:D15)</f>
         <v>1</v>
       </c>
       <c r="J15" s="2">
+        <f>_xlfn.RANK.AVG(C15,B15:D15)</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K15" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I15:K15,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2743,31 +2717,29 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>0.76979200000000003</v>
+        <v>0.76293100000000003</v>
       </c>
       <c r="C16" s="3">
-        <v>0.76458300000000001</v>
-      </c>
-      <c r="D16" s="29">
-        <v>0.76145799999999997</v>
-      </c>
+        <v>0.780891</v>
+      </c>
+      <c r="D16" s="29"/>
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(B16,B16:D16)</f>
+        <v>2</v>
       </c>
       <c r="J16" s="2">
+        <f>_xlfn.RANK.AVG(C16,B16:D16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K16" s="30">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I16:K16,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2776,31 +2748,29 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>0.95763900000000002</v>
+        <v>0.93965500000000002</v>
       </c>
       <c r="C17" s="3">
-        <v>0.95555599999999996</v>
-      </c>
-      <c r="D17" s="29">
-        <v>0.95694400000000002</v>
-      </c>
+        <v>0.93917600000000001</v>
+      </c>
+      <c r="D17" s="29"/>
       <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B17,B17:D17)</f>
         <v>1</v>
       </c>
       <c r="J17" s="2">
+        <f>_xlfn.RANK.AVG(C17,B17:D17)</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I17:K17,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2809,31 +2779,29 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>0.94108899999999995</v>
+        <v>0.94082200000000005</v>
       </c>
       <c r="C18" s="3">
-        <v>0.93993400000000005</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0.94191400000000003</v>
-      </c>
+        <v>0.94298400000000004</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="H18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B18,B18:D18)</f>
         <v>2</v>
       </c>
       <c r="J18" s="2">
+        <f>_xlfn.RANK.AVG(C18,B18:D18)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K18" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I18:K18,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2810,29 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>0.86190500000000003</v>
+        <v>0.86703300000000005</v>
       </c>
       <c r="C19" s="3">
-        <v>0.860317</v>
-      </c>
-      <c r="D19" s="29">
-        <v>0.86825399999999997</v>
-      </c>
+        <v>0.86153800000000003</v>
+      </c>
+      <c r="D19" s="29"/>
       <c r="H19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B19,B19:D19)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <f>_xlfn.RANK.AVG(C19,B19:D19)</f>
         <v>2</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K19" s="30">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I19:K19,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2875,31 +2841,29 @@
         <v>26</v>
       </c>
       <c r="B20" s="9">
-        <v>0.94444399999999995</v>
+        <v>0.94285699999999995</v>
       </c>
       <c r="C20" s="3">
-        <v>0.94603199999999998</v>
-      </c>
-      <c r="D20" s="29">
-        <v>0.94444399999999995</v>
-      </c>
+        <v>0.94505499999999998</v>
+      </c>
+      <c r="D20" s="29"/>
       <c r="H20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f>_xlfn.RANK.AVG(B20,B20:D20)</f>
+        <v>2</v>
       </c>
       <c r="J20" s="2">
+        <f>_xlfn.RANK.AVG(C20,B20:D20)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="30">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>#N/A</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I20:K20,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2908,31 +2872,29 @@
         <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>0.81145800000000001</v>
+        <v>0.80747100000000005</v>
       </c>
       <c r="C21" s="3">
-        <v>0.79947900000000005</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0.80885399999999996</v>
-      </c>
+        <v>0.81070399999999998</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>_xlfn.RANK.AVG(B21,B21:D21)</f>
+        <v>2</v>
       </c>
       <c r="J21" s="2">
+        <f>_xlfn.RANK.AVG(C21,B21:D21)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="K21" s="30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I21:K21,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2941,31 +2903,29 @@
         <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>0.74166699999999997</v>
+        <v>0.75852299999999995</v>
       </c>
       <c r="C22" s="3">
-        <v>0.74062499999999998</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0.73750000000000004</v>
-      </c>
+        <v>0.75710200000000005</v>
+      </c>
+      <c r="D22" s="29"/>
       <c r="H22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.RANK.AVG(B22,B22:D22)</f>
         <v>1</v>
       </c>
       <c r="J22" s="2">
+        <f>_xlfn.RANK.AVG(C22,B22:D22)</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="30" t="e">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K22" s="30">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(I22:K22,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -2975,30 +2935,30 @@
       </c>
       <c r="B23" s="31">
         <f>AVERAGE(B3:B22)</f>
-        <v>0.83774795000000002</v>
+        <v>0.83510264999999995</v>
       </c>
       <c r="C23" s="31">
         <f>AVERAGE(C3:C22)</f>
-        <v>0.8341196500000001</v>
-      </c>
-      <c r="D23" s="31">
+        <v>0.83254640000000002</v>
+      </c>
+      <c r="D23" s="31" t="e">
         <f>AVERAGE(D3:D22)</f>
-        <v>0.83617660000000016</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="34">
         <f>COUNTIF(I3:I22,"&lt;2")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J23" s="34">
         <f>COUNTIF(J3:J22,"&lt;2")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K23" s="34">
         <f>COUNTIF(K3:K22,"&lt;2")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3007,30 +2967,30 @@
       </c>
       <c r="B24" s="38">
         <f>I24</f>
-        <v>1.575</v>
+        <v>1.35</v>
       </c>
       <c r="C24" s="38">
         <f>J24</f>
-        <v>2.5249999999999999</v>
-      </c>
-      <c r="D24" s="38">
+        <v>1.65</v>
+      </c>
+      <c r="D24" s="38" t="e">
         <f>K24</f>
-        <v>1.9</v>
+        <v>#N/A</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="39">
         <f>AVERAGE(I3:I22)</f>
-        <v>1.575</v>
+        <v>1.35</v>
       </c>
       <c r="J24" s="39">
         <f>AVERAGE(J3:J22)</f>
-        <v>2.5249999999999999</v>
-      </c>
-      <c r="K24" s="39">
+        <v>1.65</v>
+      </c>
+      <c r="K24" s="39" t="e">
         <f>AVERAGE(K3:K22)</f>
-        <v>1.9</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3039,15 +2999,15 @@
       </c>
       <c r="B25" s="33">
         <f>I23</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" s="34">
         <f>J23</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="34">
         <f>K23</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3098,123 +3058,123 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:53" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="40"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="40"/>
-      <c r="AU3" s="40"/>
-      <c r="AV3" s="40"/>
-      <c r="AW3" s="40"/>
-      <c r="AX3" s="40"/>
-      <c r="AY3" s="40"/>
-      <c r="AZ3" s="40"/>
-      <c r="BA3" s="40"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="26" t="s">
         <v>36</v>
       </c>
@@ -7664,123 +7624,123 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="42"/>
-      <c r="BA33" s="43"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51"/>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51"/>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="51"/>
+      <c r="AP33" s="51"/>
+      <c r="AQ33" s="51"/>
+      <c r="AR33" s="51"/>
+      <c r="AS33" s="51"/>
+      <c r="AT33" s="51"/>
+      <c r="AU33" s="51"/>
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="51"/>
+      <c r="AX33" s="51"/>
+      <c r="AY33" s="51"/>
+      <c r="AZ33" s="51"/>
+      <c r="BA33" s="52"/>
     </row>
     <row r="34" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="47"/>
-      <c r="AH34" s="47"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="47"/>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="47"/>
-      <c r="AN34" s="47"/>
-      <c r="AO34" s="47"/>
-      <c r="AP34" s="47"/>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47"/>
-      <c r="AS34" s="47"/>
-      <c r="AT34" s="47"/>
-      <c r="AU34" s="47"/>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="47"/>
-      <c r="AX34" s="47"/>
-      <c r="AY34" s="47"/>
-      <c r="AZ34" s="47"/>
-      <c r="BA34" s="48"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="57"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="14" t="s">
         <v>36</v>
       </c>

--- a/TCC/experimentos3/resultados/experimentos.xlsx
+++ b/TCC/experimentos3/resultados/experimentos.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="6750" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="comparacaoAlgoritmo" sheetId="1" r:id="rId1"/>
     <sheet name="ComparacaoCojuntos" sheetId="2" r:id="rId2"/>
-    <sheet name="Atributos" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
+    <sheet name="Atributos" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="99">
   <si>
     <t>Resultados dos Experimentos</t>
   </si>
@@ -314,6 +315,15 @@
   </si>
   <si>
     <t>PART (NMO = 20)</t>
+  </si>
+  <si>
+    <t>CFS</t>
+  </si>
+  <si>
+    <t>15Best</t>
+  </si>
+  <si>
+    <t>número de atriutos CFS sem a classe</t>
   </si>
 </sst>
 </file>
@@ -604,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -658,6 +668,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,14 +714,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,22 +1083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="J1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="J1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2248,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,18 +2282,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="H1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="H1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3024,20 +3039,728 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="H1" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.89239800000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.89064299999999996</v>
+      </c>
+      <c r="D3" s="51">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I22" si="0">_xlfn.RANK.AVG(B3,B3:C3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J22" si="1">_xlfn.RANK.AVG(C3,B3:C3)</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K22" si="2">COUNTIF(I3:J3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.73951</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.75349699999999997</v>
+      </c>
+      <c r="D4" s="51">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.87157899999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.90105299999999999</v>
+      </c>
+      <c r="D5" s="51">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.75243099999999996</v>
+      </c>
+      <c r="D6" s="51">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.91224700000000003</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.91729799999999995</v>
+      </c>
+      <c r="D7" s="51">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.89610400000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.88603900000000002</v>
+      </c>
+      <c r="D8" s="51">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.84023700000000001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.86982199999999998</v>
+      </c>
+      <c r="D9" s="51">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.793103</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.85708099999999998</v>
+      </c>
+      <c r="D10" s="51">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.55407799999999996</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.57446799999999998</v>
+      </c>
+      <c r="D11" s="51">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.83602200000000004</v>
+      </c>
+      <c r="D12" s="51">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.68977299999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.57784100000000005</v>
+      </c>
+      <c r="D13" s="51">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.71793799999999997</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.63311700000000004</v>
+      </c>
+      <c r="D14" s="51">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.85880100000000004</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.880077</v>
+      </c>
+      <c r="D15" s="51">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.74137900000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.76364900000000002</v>
+      </c>
+      <c r="D16" s="51">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.94013400000000003</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.94013400000000003</v>
+      </c>
+      <c r="D17" s="51">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.93342400000000003</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.93820400000000004</v>
+      </c>
+      <c r="D18" s="51">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.84285699999999997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.86593399999999998</v>
+      </c>
+      <c r="D19" s="51">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.94395600000000002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.94285699999999995</v>
+      </c>
+      <c r="D20" s="51">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.79777299999999995</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.80783000000000005</v>
+      </c>
+      <c r="D21" s="51">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.75284099999999998</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.75710200000000005</v>
+      </c>
+      <c r="D22" s="51">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="20">
+        <f>AVERAGE(B3:B22)</f>
+        <v>0.81486325000000015</v>
+      </c>
+      <c r="C23" s="20">
+        <f>AVERAGE(C3:C22)</f>
+        <v>0.81725495000000004</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="H23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="23">
+        <f>COUNTIF(I3:I22,"&lt;2")</f>
+        <v>6</v>
+      </c>
+      <c r="J23" s="23">
+        <f>COUNTIF(J3:J22,"&lt;2")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="27">
+        <f>I24</f>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="C24" s="27">
+        <f>J24</f>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="H24" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="28">
+        <f>AVERAGE(I3:I22)</f>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="J24" s="28">
+        <f>AVERAGE(J3:J22)</f>
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="22">
+        <f>I23</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="23">
+        <f>J23</f>
+        <v>15</v>
+      </c>
+      <c r="D25" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="41" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
@@ -3045,11 +3768,14 @@
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="13.85546875" customWidth="1"/>
     <col min="19" max="19" width="13.5703125" customWidth="1"/>
     <col min="20" max="20" width="24.85546875" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="36" max="36" width="9.28515625" customWidth="1"/>
@@ -3059,127 +3785,127 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:53" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51"/>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="62"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -3191,25 +3917,25 @@
       <c r="F5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="52" t="s">
+      <c r="K5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="41" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="17" t="s">
@@ -3218,13 +3944,13 @@
       <c r="O5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="41" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="R5" s="41" t="s">
         <v>52</v>
       </c>
       <c r="S5" s="17" t="s">
@@ -3340,7 +4066,7 @@
       <c r="B6" s="16">
         <v>0.52</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="42">
         <v>0.6</v>
       </c>
       <c r="D6" s="16">
@@ -3352,25 +4078,25 @@
       <c r="F6" s="16">
         <v>0.47</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="42">
         <v>0.59</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="42">
         <v>0.59</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="42">
         <v>0.54</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="42">
         <v>0.48</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="42">
         <v>0.53</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="42">
         <v>0.55000000000000004</v>
       </c>
       <c r="N6" s="16">
@@ -3379,13 +4105,13 @@
       <c r="O6" s="16">
         <v>0.53</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="42">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q6" s="16">
         <v>0.53</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="42">
         <v>0.52</v>
       </c>
       <c r="S6" s="16">
@@ -3501,7 +4227,7 @@
       <c r="B7" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="42">
         <v>0.61</v>
       </c>
       <c r="D7" s="16">
@@ -3513,25 +4239,25 @@
       <c r="F7" s="16">
         <v>0.59</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="42">
         <v>0.62</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="42">
         <v>0.63</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="42">
         <v>0.63</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="42">
         <v>0.62</v>
       </c>
-      <c r="K7" s="53">
+      <c r="K7" s="42">
         <v>0.61</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="42">
         <v>0.61</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="42">
         <v>0.62</v>
       </c>
       <c r="N7" s="16">
@@ -3540,13 +4266,13 @@
       <c r="O7" s="16">
         <v>0.61</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="42">
         <v>0.6</v>
       </c>
       <c r="Q7" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R7" s="53">
+      <c r="R7" s="42">
         <v>0.56000000000000005</v>
       </c>
       <c r="S7" s="16">
@@ -3662,7 +4388,7 @@
       <c r="B8" s="16">
         <v>0.44</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="42">
         <v>0.54</v>
       </c>
       <c r="D8" s="16">
@@ -3674,25 +4400,25 @@
       <c r="F8" s="16">
         <v>0.42</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="42">
         <v>0.52</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="42">
         <v>0.51</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="42">
         <v>0.48</v>
       </c>
-      <c r="K8" s="53">
+      <c r="K8" s="42">
         <v>0.47</v>
       </c>
-      <c r="L8" s="53">
+      <c r="L8" s="42">
         <v>0.49</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="42">
         <v>0.46</v>
       </c>
       <c r="N8" s="16">
@@ -3701,13 +4427,13 @@
       <c r="O8" s="16">
         <v>0.45</v>
       </c>
-      <c r="P8" s="53">
+      <c r="P8" s="42">
         <v>0.49</v>
       </c>
       <c r="Q8" s="16">
         <v>0.47</v>
       </c>
-      <c r="R8" s="53">
+      <c r="R8" s="42">
         <v>0.46</v>
       </c>
       <c r="S8" s="16">
@@ -3823,7 +4549,7 @@
       <c r="B9" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="42">
         <v>0.63</v>
       </c>
       <c r="D9" s="16">
@@ -3835,25 +4561,25 @@
       <c r="F9" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="42">
         <v>0.64</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="42">
         <v>0.64</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="42">
         <v>0.61</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="42">
         <v>0.63</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="42">
         <v>0.61</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="42">
         <v>0.61</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="42">
         <v>0.61</v>
       </c>
       <c r="N9" s="16">
@@ -3862,13 +4588,13 @@
       <c r="O9" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P9" s="53">
+      <c r="P9" s="42">
         <v>0.61</v>
       </c>
       <c r="Q9" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="R9" s="53">
+      <c r="R9" s="42">
         <v>0.56999999999999995</v>
       </c>
       <c r="S9" s="16">
@@ -3984,7 +4710,7 @@
       <c r="B10" s="16">
         <v>0.63</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="42">
         <v>0.66</v>
       </c>
       <c r="D10" s="16">
@@ -3996,25 +4722,25 @@
       <c r="F10" s="16">
         <v>0.53</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="42">
         <v>0.67</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="42">
         <v>0.7</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="42">
         <v>0.69</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="42">
         <v>0.69</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="42">
         <v>0.65</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="42">
         <v>0.66</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="42">
         <v>0.65</v>
       </c>
       <c r="N10" s="16">
@@ -4023,13 +4749,13 @@
       <c r="O10" s="16">
         <v>0.69</v>
       </c>
-      <c r="P10" s="53">
+      <c r="P10" s="42">
         <v>0.64</v>
       </c>
       <c r="Q10" s="16">
         <v>0.64</v>
       </c>
-      <c r="R10" s="53">
+      <c r="R10" s="42">
         <v>0.65</v>
       </c>
       <c r="S10" s="16">
@@ -4145,7 +4871,7 @@
       <c r="B11" s="16">
         <v>0.46</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="42">
         <v>0.52</v>
       </c>
       <c r="D11" s="16">
@@ -4157,25 +4883,25 @@
       <c r="F11" s="16">
         <v>0.52</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G11" s="42">
         <v>0.53</v>
       </c>
-      <c r="H11" s="53">
+      <c r="H11" s="42">
         <v>0.52</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="42">
         <v>0.47</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="42">
         <v>0.44</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="42">
         <v>0.52</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="42">
         <v>0.51</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="42">
         <v>0.49</v>
       </c>
       <c r="N11" s="16">
@@ -4184,13 +4910,13 @@
       <c r="O11" s="16">
         <v>0.45</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="42">
         <v>0.46</v>
       </c>
       <c r="Q11" s="16">
         <v>0.44</v>
       </c>
-      <c r="R11" s="53">
+      <c r="R11" s="42">
         <v>0.47</v>
       </c>
       <c r="S11" s="16">
@@ -4306,7 +5032,7 @@
       <c r="B12" s="16">
         <v>0.5</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="42">
         <v>0.55000000000000004</v>
       </c>
       <c r="D12" s="16">
@@ -4318,25 +5044,25 @@
       <c r="F12" s="16">
         <v>0.48</v>
       </c>
-      <c r="G12" s="53">
+      <c r="G12" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="42">
         <v>0.49</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="42">
         <v>0.49</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="42">
         <v>0.53</v>
       </c>
-      <c r="L12" s="53">
+      <c r="L12" s="42">
         <v>0.5</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="42">
         <v>0.49</v>
       </c>
       <c r="N12" s="16">
@@ -4345,13 +5071,13 @@
       <c r="O12" s="16">
         <v>0.54</v>
       </c>
-      <c r="P12" s="53">
+      <c r="P12" s="42">
         <v>0.48</v>
       </c>
       <c r="Q12" s="16">
         <v>0.49</v>
       </c>
-      <c r="R12" s="53">
+      <c r="R12" s="42">
         <v>0.49</v>
       </c>
       <c r="S12" s="16">
@@ -4467,7 +5193,7 @@
       <c r="B13" s="16">
         <v>0.52</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="42">
         <v>0.57999999999999996</v>
       </c>
       <c r="D13" s="16">
@@ -4479,25 +5205,25 @@
       <c r="F13" s="16">
         <v>0.52</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="42">
         <v>0.61</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="42">
         <v>0.48</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="42">
         <v>0.56000000000000005</v>
       </c>
       <c r="N13" s="16">
@@ -4506,13 +5232,13 @@
       <c r="O13" s="16">
         <v>0.49</v>
       </c>
-      <c r="P13" s="53">
+      <c r="P13" s="42">
         <v>0.53</v>
       </c>
       <c r="Q13" s="16">
         <v>0.41</v>
       </c>
-      <c r="R13" s="53">
+      <c r="R13" s="42">
         <v>0.54</v>
       </c>
       <c r="S13" s="16">
@@ -4628,7 +5354,7 @@
       <c r="B14" s="16">
         <v>0.6</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="42">
         <v>0.64</v>
       </c>
       <c r="D14" s="16">
@@ -4640,25 +5366,25 @@
       <c r="F14" s="16">
         <v>0.5</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="42">
         <v>0.64</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="42">
         <v>0.65</v>
       </c>
-      <c r="I14" s="53">
+      <c r="I14" s="42">
         <v>0.62</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="42">
         <v>0.63</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="42">
         <v>0.62</v>
       </c>
-      <c r="L14" s="53">
+      <c r="L14" s="42">
         <v>0.63</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="42">
         <v>0.61</v>
       </c>
       <c r="N14" s="16">
@@ -4667,13 +5393,13 @@
       <c r="O14" s="16">
         <v>0.51</v>
       </c>
-      <c r="P14" s="53">
+      <c r="P14" s="42">
         <v>0.6</v>
       </c>
       <c r="Q14" s="16">
         <v>0.51</v>
       </c>
-      <c r="R14" s="53">
+      <c r="R14" s="42">
         <v>0.56999999999999995</v>
       </c>
       <c r="S14" s="16">
@@ -4789,7 +5515,7 @@
       <c r="B15" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="42">
         <v>0.59</v>
       </c>
       <c r="D15" s="16">
@@ -4801,25 +5527,25 @@
       <c r="F15" s="16">
         <v>0.5</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="42">
         <v>0.62</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="42">
         <v>0.63</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="42">
         <v>0.54</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="42">
         <v>0.48</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="42">
         <v>0.52</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="42">
         <v>0.53</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="42">
         <v>0.53</v>
       </c>
       <c r="N15" s="16">
@@ -4828,13 +5554,13 @@
       <c r="O15" s="16">
         <v>0.49</v>
       </c>
-      <c r="P15" s="53">
+      <c r="P15" s="42">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q15" s="16">
         <v>0</v>
       </c>
-      <c r="R15" s="53">
+      <c r="R15" s="42">
         <v>0.51</v>
       </c>
       <c r="S15" s="16">
@@ -4950,7 +5676,7 @@
       <c r="B16" s="16">
         <v>0.52</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="42">
         <v>0.56999999999999995</v>
       </c>
       <c r="D16" s="16">
@@ -4962,25 +5688,25 @@
       <c r="F16" s="16">
         <v>0.45</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="42">
         <v>0.59</v>
       </c>
-      <c r="I16" s="53">
+      <c r="I16" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="42">
         <v>0.53</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="42">
         <v>0.56999999999999995</v>
       </c>
       <c r="N16" s="16">
@@ -4989,13 +5715,13 @@
       <c r="O16" s="16">
         <v>0.51</v>
       </c>
-      <c r="P16" s="53">
+      <c r="P16" s="42">
         <v>0.53</v>
       </c>
       <c r="Q16" s="16">
         <v>0.5</v>
       </c>
-      <c r="R16" s="53">
+      <c r="R16" s="42">
         <v>0.52</v>
       </c>
       <c r="S16" s="16">
@@ -5111,7 +5837,7 @@
       <c r="B17" s="16">
         <v>0.54</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="42">
         <v>0.59</v>
       </c>
       <c r="D17" s="16">
@@ -5123,25 +5849,25 @@
       <c r="F17" s="16">
         <v>0.52</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="42">
         <v>0.6</v>
       </c>
-      <c r="H17" s="53">
+      <c r="H17" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I17" s="53">
+      <c r="I17" s="42">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J17" s="53">
+      <c r="J17" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L17" s="53">
+      <c r="L17" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="42">
         <v>0.56999999999999995</v>
       </c>
       <c r="N17" s="16">
@@ -5150,13 +5876,13 @@
       <c r="O17" s="16">
         <v>0.51</v>
       </c>
-      <c r="P17" s="53">
+      <c r="P17" s="42">
         <v>0.56000000000000005</v>
       </c>
       <c r="Q17" s="16">
         <v>0.54</v>
       </c>
-      <c r="R17" s="53">
+      <c r="R17" s="42">
         <v>0.54</v>
       </c>
       <c r="S17" s="16">
@@ -5272,7 +5998,7 @@
       <c r="B18" s="16">
         <v>0.42</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="42">
         <v>0.52</v>
       </c>
       <c r="D18" s="16">
@@ -5284,25 +6010,25 @@
       <c r="F18" s="16">
         <v>0.4</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="42">
         <v>0.53</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="42">
         <v>0.52</v>
       </c>
-      <c r="I18" s="53">
+      <c r="I18" s="42">
         <v>0.44</v>
       </c>
-      <c r="J18" s="53">
+      <c r="J18" s="42">
         <v>0.38</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="42">
         <v>0.51</v>
       </c>
-      <c r="L18" s="53">
+      <c r="L18" s="42">
         <v>0.49</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="42">
         <v>0.51</v>
       </c>
       <c r="N18" s="16">
@@ -5311,13 +6037,13 @@
       <c r="O18" s="16">
         <v>0.43</v>
       </c>
-      <c r="P18" s="53">
+      <c r="P18" s="42">
         <v>0.49</v>
       </c>
       <c r="Q18" s="16">
         <v>0.45</v>
       </c>
-      <c r="R18" s="53">
+      <c r="R18" s="42">
         <v>0.46</v>
       </c>
       <c r="S18" s="16">
@@ -5433,7 +6159,7 @@
       <c r="B19" s="16">
         <v>0.45</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="42">
         <v>0.53</v>
       </c>
       <c r="D19" s="16">
@@ -5445,25 +6171,25 @@
       <c r="F19" s="16">
         <v>0.53</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="42">
         <v>0.52</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="42">
         <v>0.5</v>
       </c>
-      <c r="I19" s="53">
+      <c r="I19" s="42">
         <v>0.51</v>
       </c>
-      <c r="J19" s="53">
+      <c r="J19" s="42">
         <v>0.4</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="42">
         <v>0.52</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="42">
         <v>0.51</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="42">
         <v>0.49</v>
       </c>
       <c r="N19" s="16">
@@ -5472,13 +6198,13 @@
       <c r="O19" s="16">
         <v>0.43</v>
       </c>
-      <c r="P19" s="53">
+      <c r="P19" s="42">
         <v>0.49</v>
       </c>
       <c r="Q19" s="16">
         <v>0.46</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="42">
         <v>0.48</v>
       </c>
       <c r="S19" s="16">
@@ -5594,7 +6320,7 @@
       <c r="B20" s="16">
         <v>0.42</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="42">
         <v>0.49</v>
       </c>
       <c r="D20" s="16">
@@ -5606,25 +6332,25 @@
       <c r="F20" s="16">
         <v>0.44</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="42">
         <v>0.5</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="42">
         <v>0.54</v>
       </c>
-      <c r="I20" s="53">
+      <c r="I20" s="42">
         <v>0.43</v>
       </c>
-      <c r="J20" s="53">
+      <c r="J20" s="42">
         <v>0.43</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="42">
         <v>0.53</v>
       </c>
-      <c r="L20" s="53">
+      <c r="L20" s="42">
         <v>0.49</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="42">
         <v>0.5</v>
       </c>
       <c r="N20" s="16">
@@ -5633,13 +6359,13 @@
       <c r="O20" s="16">
         <v>0.42</v>
       </c>
-      <c r="P20" s="53">
+      <c r="P20" s="42">
         <v>0.47</v>
       </c>
       <c r="Q20" s="16">
         <v>0.45</v>
       </c>
-      <c r="R20" s="53">
+      <c r="R20" s="42">
         <v>0.46</v>
       </c>
       <c r="S20" s="16">
@@ -5755,7 +6481,7 @@
       <c r="B21" s="16">
         <v>0.41</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="42">
         <v>0.46</v>
       </c>
       <c r="D21" s="16">
@@ -5767,25 +6493,25 @@
       <c r="F21" s="16">
         <v>0.45</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="42">
         <v>0.48</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="42">
         <v>0.48</v>
       </c>
-      <c r="I21" s="53">
+      <c r="I21" s="42">
         <v>0.49</v>
       </c>
-      <c r="J21" s="53">
+      <c r="J21" s="42">
         <v>0.4</v>
       </c>
-      <c r="K21" s="53">
+      <c r="K21" s="42">
         <v>0.45</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="42">
         <v>0.43</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="42">
         <v>0.41</v>
       </c>
       <c r="N21" s="16">
@@ -5794,13 +6520,13 @@
       <c r="O21" s="16">
         <v>0.46</v>
       </c>
-      <c r="P21" s="53">
+      <c r="P21" s="42">
         <v>0.24</v>
       </c>
       <c r="Q21" s="16">
         <v>0.64</v>
       </c>
-      <c r="R21" s="53">
+      <c r="R21" s="42">
         <v>0.5</v>
       </c>
       <c r="S21" s="16">
@@ -5916,7 +6642,7 @@
       <c r="B22" s="16">
         <v>0.47</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="42">
         <v>0.53</v>
       </c>
       <c r="D22" s="16">
@@ -5928,40 +6654,40 @@
       <c r="F22" s="16">
         <v>0.53</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="42">
         <v>0.5</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I22" s="53">
+      <c r="I22" s="42">
         <v>0.48</v>
       </c>
-      <c r="J22" s="53">
+      <c r="J22" s="42">
         <v>0.5</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="42">
         <v>0.48</v>
       </c>
-      <c r="L22" s="53">
+      <c r="L22" s="42">
         <v>0.47</v>
       </c>
-      <c r="M22" s="53">
+      <c r="M22" s="42">
         <v>0.46</v>
       </c>
       <c r="N22" s="16">
         <v>0.26</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="46">
         <v>0.48</v>
       </c>
-      <c r="P22" s="53">
+      <c r="P22" s="42">
         <v>0.44</v>
       </c>
       <c r="Q22" s="16">
         <v>0.45</v>
       </c>
-      <c r="R22" s="53">
+      <c r="R22" s="42">
         <v>0.46</v>
       </c>
       <c r="S22" s="16">
@@ -6077,7 +6803,7 @@
       <c r="B23" s="16">
         <v>0.42</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="42">
         <v>0.51</v>
       </c>
       <c r="D23" s="16">
@@ -6089,25 +6815,25 @@
       <c r="F23" s="16">
         <v>0</v>
       </c>
-      <c r="G23" s="53">
+      <c r="G23" s="42">
         <v>0.53</v>
       </c>
-      <c r="H23" s="53">
+      <c r="H23" s="42">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I23" s="53">
+      <c r="I23" s="42">
         <v>0.5</v>
       </c>
-      <c r="J23" s="53">
+      <c r="J23" s="42">
         <v>0.47</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="42">
         <v>0.52</v>
       </c>
-      <c r="L23" s="53">
+      <c r="L23" s="42">
         <v>0.48</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="42">
         <v>0.46</v>
       </c>
       <c r="N23" s="16">
@@ -6116,13 +6842,13 @@
       <c r="O23" s="16">
         <v>0.49</v>
       </c>
-      <c r="P23" s="53">
+      <c r="P23" s="42">
         <v>0.47</v>
       </c>
       <c r="Q23" s="16">
         <v>0.46</v>
       </c>
-      <c r="R23" s="53">
+      <c r="R23" s="42">
         <v>0.49</v>
       </c>
       <c r="S23" s="16">
@@ -6238,7 +6964,7 @@
       <c r="B24" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="42">
         <v>0.61</v>
       </c>
       <c r="D24" s="16">
@@ -6250,25 +6976,25 @@
       <c r="F24" s="16">
         <v>0.48</v>
       </c>
-      <c r="G24" s="53">
+      <c r="G24" s="42">
         <v>0.61</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="42">
         <v>0.62</v>
       </c>
-      <c r="I24" s="53">
+      <c r="I24" s="42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J24" s="53">
+      <c r="J24" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K24" s="53">
+      <c r="K24" s="42">
         <v>0.61</v>
       </c>
-      <c r="L24" s="53">
+      <c r="L24" s="42">
         <v>0.59</v>
       </c>
-      <c r="M24" s="53">
+      <c r="M24" s="42">
         <v>0.59</v>
       </c>
       <c r="N24" s="16">
@@ -6277,13 +7003,13 @@
       <c r="O24" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P24" s="53">
+      <c r="P24" s="42">
         <v>0.54</v>
       </c>
       <c r="Q24" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="R24" s="53">
+      <c r="R24" s="42">
         <v>0.56999999999999995</v>
       </c>
       <c r="S24" s="16">
@@ -6399,7 +7125,7 @@
       <c r="B25" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="42">
         <v>0.59</v>
       </c>
       <c r="D25" s="16">
@@ -6411,25 +7137,25 @@
       <c r="F25" s="16">
         <v>0.43</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="42">
         <v>0.64</v>
       </c>
-      <c r="H25" s="53">
+      <c r="H25" s="42">
         <v>0.66</v>
       </c>
-      <c r="I25" s="53">
+      <c r="I25" s="42">
         <v>0.62</v>
       </c>
-      <c r="J25" s="53">
+      <c r="J25" s="42">
         <v>0.59</v>
       </c>
-      <c r="K25" s="53">
+      <c r="K25" s="42">
         <v>0.62</v>
       </c>
-      <c r="L25" s="53">
+      <c r="L25" s="42">
         <v>0.63</v>
       </c>
-      <c r="M25" s="53">
+      <c r="M25" s="42">
         <v>0.62</v>
       </c>
       <c r="N25" s="16">
@@ -6438,13 +7164,13 @@
       <c r="O25" s="16">
         <v>0.6</v>
       </c>
-      <c r="P25" s="53">
+      <c r="P25" s="42">
         <v>0.57999999999999996</v>
       </c>
       <c r="Q25" s="16">
         <v>0.47</v>
       </c>
-      <c r="R25" s="53">
+      <c r="R25" s="42">
         <v>0.56000000000000005</v>
       </c>
       <c r="S25" s="16">
@@ -6561,7 +7287,7 @@
         <f>AVERAGE(B6:B25)</f>
         <v>0.50950000000000006</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="43">
         <f>AVERAGE(C6:C25)</f>
         <v>0.56599999999999995</v>
       </c>
@@ -6577,31 +7303,31 @@
         <f t="shared" si="0"/>
         <v>0.46550000000000014</v>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="43">
         <f t="shared" si="0"/>
         <v>0.57250000000000001</v>
       </c>
-      <c r="H26" s="54">
+      <c r="H26" s="43">
         <f t="shared" si="0"/>
         <v>0.58299999999999996</v>
       </c>
-      <c r="I26" s="54">
+      <c r="I26" s="43">
         <f t="shared" si="0"/>
         <v>0.54150000000000009</v>
       </c>
-      <c r="J26" s="54">
+      <c r="J26" s="43">
         <f t="shared" si="0"/>
         <v>0.51249999999999996</v>
       </c>
-      <c r="K26" s="54">
+      <c r="K26" s="43">
         <f t="shared" si="0"/>
         <v>0.55049999999999988</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="43">
         <f t="shared" si="0"/>
         <v>0.54300000000000015</v>
       </c>
-      <c r="M26" s="54">
+      <c r="M26" s="43">
         <f t="shared" si="0"/>
         <v>0.53750000000000009</v>
       </c>
@@ -6613,7 +7339,7 @@
         <f t="shared" si="0"/>
         <v>0.51100000000000001</v>
       </c>
-      <c r="P26" s="54">
+      <c r="P26" s="43">
         <f t="shared" si="0"/>
         <v>0.51600000000000013</v>
       </c>
@@ -6621,7 +7347,7 @@
         <f t="shared" si="0"/>
         <v>0.48000000000000009</v>
       </c>
-      <c r="R26" s="54">
+      <c r="R26" s="43">
         <f t="shared" si="0"/>
         <v>0.51900000000000013</v>
       </c>
@@ -6774,7 +7500,7 @@
         <f>B57</f>
         <v>12.625</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="44">
         <f t="shared" ref="C27:BA27" si="31">C57</f>
         <v>4.2750000000000004</v>
       </c>
@@ -6790,31 +7516,31 @@
         <f t="shared" si="31"/>
         <v>17.75</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="44">
         <f t="shared" si="31"/>
         <v>3.3</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="44">
         <f t="shared" si="31"/>
         <v>2.6</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="44">
         <f t="shared" si="31"/>
         <v>6.95</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="44">
         <f t="shared" si="31"/>
         <v>11.725</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="44">
         <f t="shared" si="31"/>
         <v>6.3250000000000002</v>
       </c>
-      <c r="L27" s="55">
+      <c r="L27" s="44">
         <f t="shared" si="31"/>
         <v>7.125</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="44">
         <f t="shared" si="31"/>
         <v>8.2249999999999996</v>
       </c>
@@ -6826,7 +7552,7 @@
         <f t="shared" si="31"/>
         <v>12.275</v>
       </c>
-      <c r="P27" s="55">
+      <c r="P27" s="44">
         <f t="shared" si="31"/>
         <v>11.824999999999999</v>
       </c>
@@ -6834,7 +7560,7 @@
         <f t="shared" si="31"/>
         <v>15.65</v>
       </c>
-      <c r="R27" s="55">
+      <c r="R27" s="44">
         <f t="shared" si="31"/>
         <v>10.875</v>
       </c>
@@ -6987,7 +7713,7 @@
         <f>B56</f>
         <v>0</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="45">
         <f t="shared" ref="C28:BA28" si="32">C56</f>
         <v>0</v>
       </c>
@@ -7003,31 +7729,31 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="45">
         <f t="shared" si="32"/>
         <v>3</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="45">
         <f t="shared" si="32"/>
         <v>7</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L28" s="56">
+      <c r="L28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="M28" s="56">
+      <c r="M28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -7039,7 +7765,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="P28" s="56">
+      <c r="P28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -7047,7 +7773,7 @@
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="R28" s="56">
+      <c r="R28" s="45">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
@@ -7200,7 +7926,7 @@
         <f>_xlfn.RANK.AVG(B26,B26:BA26)</f>
         <v>13</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="42">
         <f>_xlfn.RANK.AVG(C26,B26:BA26)</f>
         <v>3</v>
       </c>
@@ -7216,31 +7942,31 @@
         <f>_xlfn.RANK.AVG(F26,B26:BA26)</f>
         <v>19</v>
       </c>
-      <c r="G29" s="53">
+      <c r="G29" s="42">
         <f>_xlfn.RANK.AVG(G26,B26:BA26)</f>
         <v>2</v>
       </c>
-      <c r="H29" s="53">
+      <c r="H29" s="42">
         <f>_xlfn.RANK.AVG(H26,B26:BA26)</f>
         <v>1</v>
       </c>
-      <c r="I29" s="53">
+      <c r="I29" s="42">
         <f>_xlfn.RANK.AVG(I26,B26:BA26)</f>
         <v>6</v>
       </c>
-      <c r="J29" s="53">
+      <c r="J29" s="42">
         <f>_xlfn.RANK.AVG(J26,B26:BA26)</f>
         <v>10</v>
       </c>
-      <c r="K29" s="53">
+      <c r="K29" s="42">
         <f>_xlfn.RANK.AVG(K26,B26:BA26)</f>
         <v>4</v>
       </c>
-      <c r="L29" s="53">
+      <c r="L29" s="42">
         <f>_xlfn.RANK.AVG(L26,B26:BA26)</f>
         <v>5</v>
       </c>
-      <c r="M29" s="53">
+      <c r="M29" s="42">
         <f>_xlfn.RANK.AVG(M26,B26:BA26)</f>
         <v>7</v>
       </c>
@@ -7252,7 +7978,7 @@
         <f>_xlfn.RANK.AVG(O26,B26:BA26)</f>
         <v>12</v>
       </c>
-      <c r="P29" s="53">
+      <c r="P29" s="42">
         <f>_xlfn.RANK.AVG(P26,B26:BA26)</f>
         <v>9</v>
       </c>
@@ -7260,7 +7986,7 @@
         <f>_xlfn.RANK.AVG(Q26,B26:BA26)</f>
         <v>16</v>
       </c>
-      <c r="R29" s="53">
+      <c r="R29" s="42">
         <f>_xlfn.RANK.AVG(R26,B26:BA26)</f>
         <v>8</v>
       </c>
@@ -7413,7 +8139,7 @@
         <f>_xlfn.RANK.AVG(B27,B27:BA27,1)</f>
         <v>13</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="42">
         <f>_xlfn.RANK.AVG(C27,B27:BA27,1)</f>
         <v>3</v>
       </c>
@@ -7429,31 +8155,31 @@
         <f>_xlfn.RANK.AVG(F27,B27:BA27,1)</f>
         <v>17</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="42">
         <f>_xlfn.RANK.AVG(G27,B27:BA27,1)</f>
         <v>2</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="42">
         <f>_xlfn.RANK.AVG(H27,B27:BA27,1)</f>
         <v>1</v>
       </c>
-      <c r="I30" s="53">
+      <c r="I30" s="42">
         <f>_xlfn.RANK.AVG(I27,B27:BA27,1)</f>
         <v>5</v>
       </c>
-      <c r="J30" s="53">
+      <c r="J30" s="42">
         <f>_xlfn.RANK.AVG(J27,B27:BA27,1)</f>
         <v>9</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="42">
         <f>_xlfn.RANK.AVG(K27,B27:BA27,1)</f>
         <v>4</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="42">
         <f>_xlfn.RANK.AVG(L27,B27:BA27,1)</f>
         <v>6</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="42">
         <f>_xlfn.RANK.AVG(M27,B27:BA27,1)</f>
         <v>7</v>
       </c>
@@ -7465,7 +8191,7 @@
         <f>_xlfn.RANK.AVG(O27,B27:BA27,1)</f>
         <v>11</v>
       </c>
-      <c r="P30" s="53">
+      <c r="P30" s="42">
         <f>_xlfn.RANK.AVG(P27,B27:BA27,1)</f>
         <v>10</v>
       </c>
@@ -7473,7 +8199,7 @@
         <f>_xlfn.RANK.AVG(Q27,B27:BA27,1)</f>
         <v>14</v>
       </c>
-      <c r="R30" s="53">
+      <c r="R30" s="42">
         <f>_xlfn.RANK.AVG(R27,B27:BA27,1)</f>
         <v>8</v>
       </c>
@@ -7625,123 +8351,123 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="43"/>
-      <c r="AK33" s="43"/>
-      <c r="AL33" s="43"/>
-      <c r="AM33" s="43"/>
-      <c r="AN33" s="43"/>
-      <c r="AO33" s="43"/>
-      <c r="AP33" s="43"/>
-      <c r="AQ33" s="43"/>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="43"/>
-      <c r="AT33" s="43"/>
-      <c r="AU33" s="43"/>
-      <c r="AV33" s="43"/>
-      <c r="AW33" s="43"/>
-      <c r="AX33" s="43"/>
-      <c r="AY33" s="43"/>
-      <c r="AZ33" s="43"/>
-      <c r="BA33" s="44"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="54"/>
+      <c r="AC33" s="54"/>
+      <c r="AD33" s="54"/>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54"/>
+      <c r="AG33" s="54"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54"/>
+      <c r="AM33" s="54"/>
+      <c r="AN33" s="54"/>
+      <c r="AO33" s="54"/>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="54"/>
+      <c r="AW33" s="54"/>
+      <c r="AX33" s="54"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="55"/>
     </row>
     <row r="34" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48"/>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="48"/>
-      <c r="AK34" s="48"/>
-      <c r="AL34" s="48"/>
-      <c r="AM34" s="48"/>
-      <c r="AN34" s="48"/>
-      <c r="AO34" s="48"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="48"/>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="48"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="48"/>
-      <c r="AZ34" s="48"/>
-      <c r="BA34" s="49"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="59"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="59"/>
+      <c r="AZ34" s="59"/>
+      <c r="BA34" s="60"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="12" t="s">
         <v>36</v>
       </c>

--- a/TCC/experimentos3/resultados/experimentos.xlsx
+++ b/TCC/experimentos3/resultados/experimentos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6750" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="7650" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="comparacaoAlgoritmo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="99">
   <si>
     <t>Resultados dos Experimentos</t>
   </si>
@@ -419,7 +419,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,8 +522,14 @@
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -609,12 +615,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -680,6 +697,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,6 +732,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,6 +817,1027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Atributos!$A$65:$T$65</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>num_commits</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>description_length</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>created_at_day_turn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>files_modified</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>files_changed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>files_added</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>src_files</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_entropy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>src_churn</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>files_deleted</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>entropy_diff</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>other_files</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>created_at_week_day</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>commits_on_files_touched</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>commits_to_hottest_file</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>test_churn</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>hotness</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>project_succ_rate</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>intra_branch</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>at_mentions_comments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Atributos!$A$66:$T$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54149999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50949999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6A2-447D-8AB8-9AED38F61F71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="116631840"/>
+        <c:axId val="116643072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="116631840"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1800"/>
+                  <a:t>Atriutos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116643072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116643072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.60000000000000009"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1800"/>
+                  <a:t>Importância</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116631840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600" b="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>956188</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1064,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D22"/>
+    <sheetView topLeftCell="A2" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,22 +2123,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="J1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="J1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
     </row>
     <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1561,10 +2602,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="34">
         <v>0.844086</v>
       </c>
       <c r="C12" s="28">
@@ -1573,7 +2614,7 @@
       <c r="D12" s="28">
         <v>0.83602200000000004</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="34">
         <v>0.844086</v>
       </c>
       <c r="F12" s="28">
@@ -2124,6 +3165,10 @@
         <f>COUNTIF(O3:O22,"&lt;2")</f>
         <v>3</v>
       </c>
+      <c r="P23" s="52">
+        <f>SUM(P3:P22)</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2196,6 +3241,10 @@
       <c r="F25" s="22">
         <f>O23</f>
         <v>3</v>
+      </c>
+      <c r="G25" s="51">
+        <f>SUM(B25:F25)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2262,8 +3311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,18 +3330,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="H1" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="H1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3081,7 +4130,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,12 +4145,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
       <c r="H1" s="46" t="s">
         <v>1</v>
       </c>
@@ -3781,15 +4830,16 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:BB57"/>
+  <dimension ref="A3:BB66"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="AS91" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BD93" sqref="BD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,128 +4869,130 @@
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="36" max="36" width="9.28515625" customWidth="1"/>
     <col min="45" max="45" width="11.140625" customWidth="1"/>
+    <col min="48" max="48" width="20" customWidth="1"/>
+    <col min="50" max="50" width="31.5703125" customWidth="1"/>
     <col min="52" max="52" width="15.42578125" customWidth="1"/>
     <col min="53" max="53" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:53" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="51"/>
-      <c r="AI3" s="51"/>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="51"/>
-      <c r="AQ3" s="51"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="53"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="53"/>
+      <c r="AS3" s="53"/>
+      <c r="AT3" s="53"/>
+      <c r="AU3" s="53"/>
+      <c r="AV3" s="53"/>
+      <c r="AW3" s="53"/>
+      <c r="AX3" s="53"/>
+      <c r="AY3" s="53"/>
+      <c r="AZ3" s="53"/>
+      <c r="BA3" s="53"/>
     </row>
     <row r="4" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="63"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
@@ -8390,123 +9442,123 @@
       </c>
     </row>
     <row r="33" spans="1:54" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
-      <c r="AB33" s="53"/>
-      <c r="AC33" s="53"/>
-      <c r="AD33" s="53"/>
-      <c r="AE33" s="53"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
-      <c r="AN33" s="53"/>
-      <c r="AO33" s="53"/>
-      <c r="AP33" s="53"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="53"/>
-      <c r="AS33" s="53"/>
-      <c r="AT33" s="53"/>
-      <c r="AU33" s="53"/>
-      <c r="AV33" s="53"/>
-      <c r="AW33" s="53"/>
-      <c r="AX33" s="53"/>
-      <c r="AY33" s="53"/>
-      <c r="AZ33" s="53"/>
-      <c r="BA33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
+      <c r="AF33" s="55"/>
+      <c r="AG33" s="55"/>
+      <c r="AH33" s="55"/>
+      <c r="AI33" s="55"/>
+      <c r="AJ33" s="55"/>
+      <c r="AK33" s="55"/>
+      <c r="AL33" s="55"/>
+      <c r="AM33" s="55"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="55"/>
+      <c r="AY33" s="55"/>
+      <c r="AZ33" s="55"/>
+      <c r="BA33" s="56"/>
     </row>
     <row r="34" spans="1:54" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-      <c r="AJ34" s="58"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
-      <c r="AR34" s="58"/>
-      <c r="AS34" s="58"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="60"/>
+      <c r="AK34" s="60"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="60"/>
+      <c r="AQ34" s="60"/>
+      <c r="AR34" s="60"/>
+      <c r="AS34" s="60"/>
+      <c r="AT34" s="60"/>
+      <c r="AU34" s="60"/>
+      <c r="AV34" s="60"/>
+      <c r="AW34" s="60"/>
+      <c r="AX34" s="60"/>
+      <c r="AY34" s="60"/>
+      <c r="AZ34" s="60"/>
+      <c r="BA34" s="61"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="58"/>
       <c r="B35" s="12" t="s">
         <v>36</v>
       </c>
@@ -13432,6 +14484,322 @@
       <c r="BA57" s="27">
         <f t="shared" si="87"/>
         <v>36.725000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" t="s">
+        <v>44</v>
+      </c>
+      <c r="K65" t="s">
+        <v>53</v>
+      </c>
+      <c r="L65" t="s">
+        <v>49</v>
+      </c>
+      <c r="M65" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="P65" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" t="s">
+        <v>60</v>
+      </c>
+      <c r="S65" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" t="s">
+        <v>48</v>
+      </c>
+      <c r="V65" t="s">
+        <v>59</v>
+      </c>
+      <c r="W65" t="s">
+        <v>71</v>
+      </c>
+      <c r="X65" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW65" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX65" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="B66">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D66">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="F66">
+        <v>0.54149999999999998</v>
+      </c>
+      <c r="G66">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="H66">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I66">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="J66">
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="K66">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="N66">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="O66" s="64">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="P66">
+        <v>0.48</v>
+      </c>
+      <c r="Q66">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="R66">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="S66">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="T66">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="U66">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="V66">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="W66">
+        <v>0.443</v>
+      </c>
+      <c r="X66">
+        <v>0.4385</v>
+      </c>
+      <c r="Y66">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="Z66">
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="AB66">
+        <v>0.3805</v>
+      </c>
+      <c r="AC66">
+        <v>0.3755</v>
+      </c>
+      <c r="AD66">
+        <v>0.3735</v>
+      </c>
+      <c r="AE66">
+        <v>0.3725</v>
+      </c>
+      <c r="AF66">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="AG66">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="AH66">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="AI66">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="AJ66">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="AK66">
+        <v>0.33850000000000002</v>
+      </c>
+      <c r="AL66">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="AM66">
+        <v>0.3145</v>
+      </c>
+      <c r="AN66">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AO66">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="AP66">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AQ66">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="AR66">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AS66">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="AT66">
+        <v>0.26850000000000002</v>
+      </c>
+      <c r="AU66">
+        <v>0.249</v>
+      </c>
+      <c r="AV66">
+        <v>0.2475</v>
+      </c>
+      <c r="AW66">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="AX66">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="AY66">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AZ66">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13445,5 +14813,6 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>